--- a/v0.7/StructureDefinition-Coverage.xlsx
+++ b/v0.7/StructureDefinition-Coverage.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hcx-project.github.io/hcx-specs/v0.7/StructureDefinition-Coverage.html</t>
+    <t>https://ig.hcxprotocol.io/v0.7/StructureDefinition-Coverage.html</t>
   </si>
   <si>
     <t>Version</t>

--- a/v0.7/StructureDefinition-Coverage.xlsx
+++ b/v0.7/StructureDefinition-Coverage.xlsx
@@ -114,7 +114,7 @@
     <t>Derivation</t>
   </si>
   <si>
-    <t>specialization</t>
+    <t>constraint</t>
   </si>
   <si>
     <t>Path</t>
@@ -255,10 +255,6 @@
     <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -269,335 +265,339 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Coverage.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Coverage.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Coverage.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Coverage.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Coverage.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Coverage.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Coverage.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Coverage.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for the coverage</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this coverage.</t>
+  </si>
+  <si>
+    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependant.</t>
+  </si>
+  <si>
+    <t>Allows coverages to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>IN1-2</t>
+  </si>
+  <si>
+    <t>C.32, C.33, C.39</t>
+  </si>
+  <si>
+    <t>Coverage.status</t>
+  </si>
+  <si>
+    <t>active | cancelled | draft | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the resource instance.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the resource instance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>Act.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Coverage.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Coverage category such as medical or accident</t>
+  </si>
+  <si>
+    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
+  </si>
+  <si>
+    <t>The order of application of coverages is dependent on the types of coverage.</t>
+  </si>
+  <si>
+    <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>IN1-15</t>
+  </si>
+  <si>
+    <t>Coverage.policyHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Organization)
+</t>
+  </si>
+  <si>
+    <t>Owner of the policy</t>
+  </si>
+  <si>
+    <t>The party who 'owns' the insurance policy.</t>
+  </si>
+  <si>
+    <t>For example: may be an individual, corporation or the subscriber's employer.</t>
+  </si>
+  <si>
+    <t>This provides employer information in the case of Worker's Compensation and other policies.</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>D01 through D09</t>
+  </si>
+  <si>
+    <t>IN1-16, 18,  19-name of insured, address, date of birth</t>
+  </si>
+  <si>
+    <t>C.35</t>
+  </si>
+  <si>
+    <t>Coverage.subscriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Subscriber to the policy</t>
+  </si>
+  <si>
+    <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.</t>
+  </si>
+  <si>
+    <t>May be self or a parent in the case of dependants.</t>
+  </si>
+  <si>
+    <t>This is the party who is entitled to the benfits under the policy.</t>
+  </si>
+  <si>
+    <t>Coverage.subscriberId</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Coverage.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Coverage.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Coverage.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Coverage.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Coverage.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Coverage.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Coverage.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Coverage.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for the coverage</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this coverage.</t>
-  </si>
-  <si>
-    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatenation of the Coverage.SubscriberID and the Coverage.dependant.</t>
-  </si>
-  <si>
-    <t>Allows coverages to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>C02</t>
-  </si>
-  <si>
-    <t>IN1-2</t>
-  </si>
-  <si>
-    <t>C.32, C.33, C.39</t>
-  </si>
-  <si>
-    <t>Coverage.status</t>
-  </si>
-  <si>
-    <t>active | cancelled | draft | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the resource instance.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the resource instance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>Act.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Coverage.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Coverage category such as medical or accident</t>
-  </si>
-  <si>
-    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
-  </si>
-  <si>
-    <t>The order of application of coverages is dependent on the types of coverage.</t>
-  </si>
-  <si>
-    <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>IN1-15</t>
-  </si>
-  <si>
-    <t>Coverage.policyHolder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Organization)
-</t>
-  </si>
-  <si>
-    <t>Owner of the policy</t>
-  </si>
-  <si>
-    <t>The party who 'owns' the insurance policy.</t>
-  </si>
-  <si>
-    <t>For example: may be an individual, corporation or the subscriber's employer.</t>
-  </si>
-  <si>
-    <t>This provides employer information in the case of Worker's Compensation and other policies.</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>D01 through D09</t>
-  </si>
-  <si>
-    <t>IN1-16, 18,  19-name of insured, address, date of birth</t>
-  </si>
-  <si>
-    <t>C.35</t>
-  </si>
-  <si>
-    <t>Coverage.subscriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Subscriber to the policy</t>
-  </si>
-  <si>
-    <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.</t>
-  </si>
-  <si>
-    <t>May be self or a parent in the case of dependants.</t>
-  </si>
-  <si>
-    <t>This is the party who is entitled to the benfits under the policy.</t>
-  </si>
-  <si>
-    <t>Coverage.subscriberId</t>
   </si>
   <si>
     <t>ID assigned to the subscriber</t>
@@ -1341,15 +1341,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="51.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1360,28 +1360,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="139.6484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.53125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="139.65234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.15234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="50.94140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="57.1640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="54.17578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="50.9453125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="57.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1605,10 +1605,10 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>7</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1639,28 +1639,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1710,13 +1710,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1756,25 +1756,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1825,19 +1825,19 @@
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1871,28 +1871,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1942,19 +1942,19 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1988,7 +1988,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -2000,16 +2000,16 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2035,43 +2035,43 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>75</v>
@@ -2094,18 +2094,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -2117,16 +2117,16 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2176,25 +2176,25 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>75</v>
@@ -2211,11 +2211,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2234,16 +2234,16 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2293,7 +2293,7 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -2311,7 +2311,7 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>75</v>
@@ -2328,11 +2328,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2351,16 +2351,16 @@
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2410,7 +2410,7 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2422,13 +2422,13 @@
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>75</v>
@@ -2445,11 +2445,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2462,25 +2462,25 @@
         <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>75</v>
@@ -2529,7 +2529,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2541,13 +2541,13 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>75</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>77</v>
@@ -2584,22 +2584,22 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>75</v>
@@ -2648,7 +2648,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2660,30 +2660,30 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2691,34 +2691,34 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="I12" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
@@ -2743,52 +2743,52 @@
         <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2813,29 +2813,29 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>75</v>
@@ -2860,58 +2860,58 @@
         <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>75</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2930,31 +2930,31 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -3003,19 +3003,19 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -3024,21 +3024,21 @@
         <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3049,31 +3049,31 @@
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>75</v>
@@ -3122,19 +3122,19 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>75</v>
@@ -3143,21 +3143,21 @@
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3168,19 +3168,19 @@
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>189</v>
@@ -3239,19 +3239,19 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>75</v>
@@ -3260,16 +3260,16 @@
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -3282,19 +3282,19 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>193</v>
@@ -3359,16 +3359,16 @@
         <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>197</v>
@@ -3377,16 +3377,16 @@
         <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -3402,19 +3402,19 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>199</v>
@@ -3481,13 +3481,13 @@
         <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>75</v>
@@ -3521,7 +3521,7 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>75</v>
@@ -3533,7 +3533,7 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>206</v>
@@ -3600,13 +3600,13 @@
         <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
@@ -3640,16 +3640,16 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>215</v>
@@ -3717,13 +3717,13 @@
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>219</v>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>77</v>
@@ -3766,7 +3766,7 @@
         <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>224</v>
@@ -3833,7 +3833,7 @@
         <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3842,7 +3842,7 @@
         <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>75</v>
@@ -3961,7 +3961,7 @@
         <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>75</v>
@@ -3995,7 +3995,7 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>75</v>
@@ -4007,7 +4007,7 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>240</v>
@@ -4070,7 +4070,7 @@
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>75</v>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4122,16 +4122,16 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4193,7 +4193,7 @@
         <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>75</v>
@@ -4233,13 +4233,13 @@
         <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>249</v>
@@ -4248,10 +4248,10 @@
         <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>75</v>
@@ -4312,13 +4312,13 @@
         <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4343,22 +4343,22 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>253</v>
@@ -4420,16 +4420,16 @@
         <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>75</v>
@@ -4460,22 +4460,22 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>259</v>
@@ -4539,16 +4539,16 @@
         <v>258</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>75</v>
@@ -4582,19 +4582,19 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>267</v>
@@ -4659,13 +4659,13 @@
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>75</v>
@@ -4699,16 +4699,16 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>271</v>
@@ -4776,13 +4776,13 @@
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>75</v>
@@ -4816,19 +4816,19 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>276</v>
@@ -4893,13 +4893,13 @@
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>75</v>
@@ -5018,7 +5018,7 @@
         <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>75</v>
@@ -5052,7 +5052,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>75</v>
@@ -5064,7 +5064,7 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>240</v>
@@ -5127,7 +5127,7 @@
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>75</v>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5179,16 +5179,16 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>245</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5250,7 +5250,7 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
@@ -5290,13 +5290,13 @@
         <v>75</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>249</v>
@@ -5305,10 +5305,10 @@
         <v>250</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>75</v>
@@ -5369,13 +5369,13 @@
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5403,19 +5403,19 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>290</v>
@@ -5482,13 +5482,13 @@
         <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>75</v>
@@ -5519,19 +5519,19 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>297</v>
@@ -5598,16 +5598,16 @@
         <v>296</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>75</v>
@@ -5724,7 +5724,7 @@
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>75</v>
@@ -5758,7 +5758,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>75</v>
@@ -5770,7 +5770,7 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>240</v>
@@ -5833,7 +5833,7 @@
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>75</v>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5885,16 +5885,16 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>245</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5956,7 +5956,7 @@
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>75</v>
@@ -5996,13 +5996,13 @@
         <v>75</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>249</v>
@@ -6011,10 +6011,10 @@
         <v>250</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>75</v>
@@ -6075,13 +6075,13 @@
         <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -6106,22 +6106,22 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>309</v>
@@ -6183,16 +6183,16 @@
         <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>75</v>
@@ -6226,16 +6226,16 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>215</v>
@@ -6303,13 +6303,13 @@
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
@@ -6343,7 +6343,7 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>75</v>
@@ -6422,13 +6422,13 @@
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>75</v>
@@ -6545,7 +6545,7 @@
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>75</v>
@@ -6557,13 +6557,13 @@
         <v>75</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>330</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
